--- a/medicine/Soins infirmiers et profession infirmière/1895_en_santé_et_médecine/1895_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1895_en_santé_et_médecine/1895_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1895_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1895_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1895 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1895_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1895_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>26 novembre : l'obstétricien français Adolphe Pinard introduit le terme de puériculture intra-utérine dans une communication à l’Académie de médecine[1]. Il invente la même année un stéthoscope obstétrical[2].
-22 décembre : Wilhelm Röntgen réalise le premier cliché radiographique en intercalant la main de son épouse entre le tube de Crookes et une plaque photographique[3].
-Le biologiste britannique David Bruce découvre  en Afrique du Sud le trypanosome qui décime les troupeaux par le nagana (maladie du sommeil animale) et sa transmission par la mouche tsé-tsé[4].
-Le mot « naturopathie » est inventé à New York par le docteur d’origine allemande John Scheel[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>26 novembre : l'obstétricien français Adolphe Pinard introduit le terme de puériculture intra-utérine dans une communication à l’Académie de médecine. Il invente la même année un stéthoscope obstétrical.
+22 décembre : Wilhelm Röntgen réalise le premier cliché radiographique en intercalant la main de son épouse entre le tube de Crookes et une plaque photographique.
+Le biologiste britannique David Bruce découvre  en Afrique du Sud le trypanosome qui décime les troupeaux par le nagana (maladie du sommeil animale) et sa transmission par la mouche tsé-tsé.
+Le mot « naturopathie » est inventé à New York par le docteur d’origine allemande John Scheel.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1895_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1895_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gustave Le Bon (1841-1931) : Psychologie des foules[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gustave Le Bon (1841-1931) : Psychologie des foules.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1895_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1895_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>5 juin : Wilfrid Clark (mort en 1971), anatomiste et chirurgien britannique.
 6 octobre : Robert Courrier, biologiste français, médaille d'or du CNRS en 1963, mort le 14 mars 1986.</t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1895_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1895_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,11 +623,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>29 janvier : Charles Girard (né en 1822), médecin et zoologiste américain d'origine française.
 21 février : Alphonse Guérin (né en 1817), médecin et chirurgien français.
-5 mars : Daniel Hack Tuke (né en 1827), psychiatre britannique[7].
+5 mars : Daniel Hack Tuke (né en 1827), psychiatre britannique.
 28 septembre : Louis Pasteur (né en 1822), scientifique français, chimiste et physicien de formation.
 Sans date
 Georges Dujardin-Beaumetz (né en 1833), médecin français.</t>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1895_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1895_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ François Secco, L'eugénisme de la puériculture d'Adolphe Pinard - modeler l'individu pour améliorer l'humanité, L'Harmattan, 2021 (ISBN 9782343244389, présentation en ligne)
